--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1031,7 +1031,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1923,7 +1923,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valueInteger}
+    <t xml:space="preserve">value:$this.valueInteger.value}
 </t>
   </si>
   <si>
@@ -3127,7 +3127,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.29296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1923,7 +1923,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valueInteger.value}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -3127,7 +3127,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="28.6484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13212" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13221" uniqueCount="896">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1923,11 +1923,11 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valuecodeableConcept.code}
+    <t xml:space="preserve">value:$this.code}
 </t>
   </si>
   <si>
-    <t>Slice basiert auf component.code.coding.code #value</t>
+    <t>Slice basiert auf $this.code</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -2052,8 +2052,7 @@
     <t>Observation.component:newborn.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.code}
-</t>
+    <t>Slice basiert auf $this.system und $this.code</t>
   </si>
   <si>
     <t>Observation.component:newborn.code.coding:newborn_UMLS</t>
@@ -3127,7 +3126,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="37.3046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -19728,13 +19727,13 @@
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>82</v>
@@ -19816,7 +19815,7 @@
         <v>104</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>82</v>
@@ -22210,9 +22209,11 @@
         <v>82</v>
       </c>
       <c r="AB158" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC158" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC158" s="2"/>
       <c r="AD158" t="s" s="2">
         <v>82</v>
       </c>
@@ -25110,9 +25111,11 @@
         <v>82</v>
       </c>
       <c r="AB182" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC182" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC182" s="2"/>
       <c r="AD182" t="s" s="2">
         <v>82</v>
       </c>
@@ -27654,9 +27657,11 @@
         <v>82</v>
       </c>
       <c r="AB203" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC203" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC203" s="2"/>
       <c r="AD203" t="s" s="2">
         <v>82</v>
       </c>
@@ -30198,9 +30203,11 @@
         <v>82</v>
       </c>
       <c r="AB224" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC224" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC224" s="2"/>
       <c r="AD224" t="s" s="2">
         <v>82</v>
       </c>
@@ -32742,9 +32749,11 @@
         <v>82</v>
       </c>
       <c r="AB245" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC245" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC245" s="2"/>
       <c r="AD245" t="s" s="2">
         <v>82</v>
       </c>
@@ -35286,9 +35295,11 @@
         <v>82</v>
       </c>
       <c r="AB266" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC266" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC266" s="2"/>
       <c r="AD266" t="s" s="2">
         <v>82</v>
       </c>
@@ -37830,9 +37841,11 @@
         <v>82</v>
       </c>
       <c r="AB287" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC287" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC287" s="2"/>
       <c r="AD287" t="s" s="2">
         <v>82</v>
       </c>
@@ -40374,9 +40387,11 @@
         <v>82</v>
       </c>
       <c r="AB308" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC308" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC308" s="2"/>
       <c r="AD308" t="s" s="2">
         <v>82</v>
       </c>
@@ -42918,9 +42933,11 @@
         <v>82</v>
       </c>
       <c r="AB329" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AC329" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AC329" s="2"/>
       <c r="AD329" t="s" s="2">
         <v>82</v>
       </c>

--- a/output/StructureDefinition-rv-age-in-age-Classes.xlsx
+++ b/output/StructureDefinition-rv-age-in-age-Classes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13221" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13221" uniqueCount="897">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1923,133 +1923,137 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>Slice basiert auf code</t>
+  </si>
+  <si>
+    <t>containment by OBX-4?</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>Observation.component.id</t>
+  </si>
+  <si>
+    <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.code</t>
+  </si>
+  <si>
+    <t>Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR +&lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Actual component result</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the component result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation of component result</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component:newborn</t>
+  </si>
+  <si>
+    <t>newborn</t>
+  </si>
+  <si>
+    <t>Observation.component:newborn.id</t>
+  </si>
+  <si>
+    <t>Observation.component:newborn.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:newborn.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:newborn.code</t>
+  </si>
+  <si>
+    <t>Newborn</t>
+  </si>
+  <si>
+    <t>Age Group 'Newborn'</t>
+  </si>
+  <si>
+    <t>Zusätzliche Codes, die diesen Code übersetzen oder abbilden, sind erlaubt. Beispielsweise ein granularerer LOINC-Code oder Code, der lokal in einem System verwendet wird.</t>
+  </si>
+  <si>
+    <t>Observation.component:newborn.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:newborn.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:newborn.code.coding</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:$this.code}
 </t>
-  </si>
-  <si>
-    <t>Slice basiert auf $this.code</t>
-  </si>
-  <si>
-    <t>containment by OBX-4?</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=COMP]</t>
-  </si>
-  <si>
-    <t>Observation.component.id</t>
-  </si>
-  <si>
-    <t>Observation.component.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.code</t>
-  </si>
-  <si>
-    <t>Type of component observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR -&lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>Observation.component.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding</t>
-  </si>
-  <si>
-    <t>Observation.component.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>Observation.component.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the component result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation of component result</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Observation.component:newborn</t>
-  </si>
-  <si>
-    <t>newborn</t>
-  </si>
-  <si>
-    <t>Observation.component:newborn.id</t>
-  </si>
-  <si>
-    <t>Observation.component:newborn.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:newborn.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:newborn.code</t>
-  </si>
-  <si>
-    <t>Newborn</t>
-  </si>
-  <si>
-    <t>Age Group 'Newborn'</t>
-  </si>
-  <si>
-    <t>Zusätzliche Codes, die diesen Code übersetzen oder abbilden, sind erlaubt. Beispielsweise ein granularerer LOINC-Code oder Code, der lokal in einem System verwendet wird.</t>
-  </si>
-  <si>
-    <t>Observation.component:newborn.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:newborn.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:newborn.code.coding</t>
   </si>
   <si>
     <t>Slice basiert auf $this.system und $this.code</t>
@@ -22209,10 +22213,10 @@
         <v>82</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD158" t="s" s="2">
         <v>82</v>
@@ -22256,13 +22260,13 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>82</v>
@@ -22380,10 +22384,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22498,10 +22502,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22618,10 +22622,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22740,10 +22744,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22860,10 +22864,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22905,7 +22909,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>82</v>
@@ -22982,10 +22986,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23104,10 +23108,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23226,7 +23230,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>629</v>
@@ -23348,7 +23352,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>630</v>
@@ -23374,7 +23378,7 @@
         <v>93</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L168" t="s" s="2">
         <v>631</v>
@@ -23470,10 +23474,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23588,10 +23592,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23708,10 +23712,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23734,13 +23738,13 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -23758,10 +23762,10 @@
         <v>82</v>
       </c>
       <c r="U171" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="V171" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="W171" t="s" s="2">
         <v>82</v>
@@ -23791,7 +23795,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23826,7 +23830,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>634</v>
@@ -23948,7 +23952,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>640</v>
@@ -24070,7 +24074,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>641</v>
@@ -24192,13 +24196,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>609</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>82</v>
@@ -24316,7 +24320,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>618</v>
@@ -24434,7 +24438,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>619</v>
@@ -24554,7 +24558,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>620</v>
@@ -24676,7 +24680,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>621</v>
@@ -24705,10 +24709,10 @@
         <v>198</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>652</v>
@@ -24798,7 +24802,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>626</v>
@@ -24916,7 +24920,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>627</v>
@@ -25036,7 +25040,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>628</v>
@@ -25111,10 +25115,10 @@
         <v>82</v>
       </c>
       <c r="AB182" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC182" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD182" t="s" s="2">
         <v>82</v>
@@ -25158,13 +25162,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>82</v>
@@ -25282,10 +25286,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25400,10 +25404,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25520,10 +25524,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25642,10 +25646,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25762,10 +25766,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25807,7 +25811,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>82</v>
@@ -25884,10 +25888,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26006,10 +26010,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26128,7 +26132,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>629</v>
@@ -26250,7 +26254,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>630</v>
@@ -26372,7 +26376,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>634</v>
@@ -26494,7 +26498,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>640</v>
@@ -26616,7 +26620,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>641</v>
@@ -26738,13 +26742,13 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>609</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>82</v>
@@ -26862,7 +26866,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>618</v>
@@ -26980,7 +26984,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>619</v>
@@ -27100,7 +27104,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>620</v>
@@ -27222,7 +27226,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>621</v>
@@ -27251,10 +27255,10 @@
         <v>198</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N200" t="s" s="2">
         <v>652</v>
@@ -27344,7 +27348,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>626</v>
@@ -27462,7 +27466,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>627</v>
@@ -27582,7 +27586,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>628</v>
@@ -27657,10 +27661,10 @@
         <v>82</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC203" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD203" t="s" s="2">
         <v>82</v>
@@ -27704,13 +27708,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>82</v>
@@ -27828,10 +27832,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27946,10 +27950,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28066,10 +28070,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28188,10 +28192,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28308,10 +28312,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28353,7 +28357,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>82</v>
@@ -28430,10 +28434,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28552,10 +28556,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28674,7 +28678,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>629</v>
@@ -28796,7 +28800,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>630</v>
@@ -28918,7 +28922,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>634</v>
@@ -29040,7 +29044,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>640</v>
@@ -29162,7 +29166,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>641</v>
@@ -29284,13 +29288,13 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>609</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>82</v>
@@ -29408,7 +29412,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>618</v>
@@ -29526,7 +29530,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>619</v>
@@ -29646,7 +29650,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>620</v>
@@ -29768,7 +29772,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>621</v>
@@ -29797,10 +29801,10 @@
         <v>198</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>652</v>
@@ -29890,7 +29894,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>626</v>
@@ -30008,7 +30012,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>627</v>
@@ -30128,7 +30132,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>628</v>
@@ -30203,10 +30207,10 @@
         <v>82</v>
       </c>
       <c r="AB224" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD224" t="s" s="2">
         <v>82</v>
@@ -30250,13 +30254,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>82</v>
@@ -30374,10 +30378,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30492,10 +30496,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30612,10 +30616,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30734,10 +30738,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -30854,10 +30858,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30899,7 +30903,7 @@
       </c>
       <c r="Q230" s="2"/>
       <c r="R230" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="S230" t="s" s="2">
         <v>82</v>
@@ -30976,10 +30980,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31098,10 +31102,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31220,7 +31224,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>629</v>
@@ -31342,7 +31346,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>630</v>
@@ -31464,7 +31468,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>634</v>
@@ -31586,7 +31590,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>640</v>
@@ -31708,7 +31712,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>641</v>
@@ -31830,13 +31834,13 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>609</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>82</v>
@@ -31954,7 +31958,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>618</v>
@@ -32072,7 +32076,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>619</v>
@@ -32192,7 +32196,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>620</v>
@@ -32314,7 +32318,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>621</v>
@@ -32343,10 +32347,10 @@
         <v>198</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N242" t="s" s="2">
         <v>652</v>
@@ -32436,7 +32440,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>626</v>
@@ -32554,7 +32558,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>627</v>
@@ -32674,7 +32678,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>628</v>
@@ -32749,10 +32753,10 @@
         <v>82</v>
       </c>
       <c r="AB245" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC245" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD245" t="s" s="2">
         <v>82</v>
@@ -32796,13 +32800,13 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D246" t="s" s="2">
         <v>82</v>
@@ -32920,10 +32924,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -33038,10 +33042,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33158,10 +33162,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33280,10 +33284,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -33400,10 +33404,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -33445,7 +33449,7 @@
       </c>
       <c r="Q251" s="2"/>
       <c r="R251" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>82</v>
@@ -33522,10 +33526,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -33644,10 +33648,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -33766,7 +33770,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>629</v>
@@ -33888,7 +33892,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>630</v>
@@ -34010,7 +34014,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>634</v>
@@ -34132,7 +34136,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>640</v>
@@ -34254,7 +34258,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>641</v>
@@ -34376,13 +34380,13 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>609</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D259" t="s" s="2">
         <v>82</v>
@@ -34500,7 +34504,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>618</v>
@@ -34618,7 +34622,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>619</v>
@@ -34738,7 +34742,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>620</v>
@@ -34860,7 +34864,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>621</v>
@@ -34889,7 +34893,7 @@
         <v>198</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>651</v>
@@ -34982,7 +34986,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>626</v>
@@ -35100,7 +35104,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>627</v>
@@ -35220,7 +35224,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>628</v>
@@ -35295,10 +35299,10 @@
         <v>82</v>
       </c>
       <c r="AB266" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD266" t="s" s="2">
         <v>82</v>
@@ -35342,13 +35346,13 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D267" t="s" s="2">
         <v>82</v>
@@ -35466,10 +35470,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -35584,10 +35588,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -35704,10 +35708,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -35826,10 +35830,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -35946,10 +35950,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -35991,7 +35995,7 @@
       </c>
       <c r="Q272" s="2"/>
       <c r="R272" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="S272" t="s" s="2">
         <v>82</v>
@@ -36068,10 +36072,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -36190,10 +36194,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -36312,7 +36316,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>629</v>
@@ -36434,7 +36438,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>630</v>
@@ -36556,7 +36560,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>634</v>
@@ -36678,7 +36682,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>640</v>
@@ -36800,7 +36804,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>641</v>
@@ -36922,13 +36926,13 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>609</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D280" t="s" s="2">
         <v>82</v>
@@ -37046,7 +37050,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>618</v>
@@ -37164,7 +37168,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>619</v>
@@ -37284,7 +37288,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>620</v>
@@ -37406,7 +37410,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>621</v>
@@ -37435,10 +37439,10 @@
         <v>198</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N284" t="s" s="2">
         <v>652</v>
@@ -37528,7 +37532,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>626</v>
@@ -37646,7 +37650,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>627</v>
@@ -37766,7 +37770,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>628</v>
@@ -37841,10 +37845,10 @@
         <v>82</v>
       </c>
       <c r="AB287" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC287" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD287" t="s" s="2">
         <v>82</v>
@@ -37888,13 +37892,13 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D288" t="s" s="2">
         <v>82</v>
@@ -38012,10 +38016,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -38130,10 +38134,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -38250,10 +38254,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -38372,10 +38376,10 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -38492,10 +38496,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -38537,7 +38541,7 @@
       </c>
       <c r="Q293" s="2"/>
       <c r="R293" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="S293" t="s" s="2">
         <v>82</v>
@@ -38614,10 +38618,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -38736,10 +38740,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -38858,7 +38862,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>629</v>
@@ -38980,7 +38984,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>630</v>
@@ -39102,7 +39106,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>634</v>
@@ -39224,7 +39228,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>640</v>
@@ -39346,7 +39350,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>641</v>
@@ -39468,13 +39472,13 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>609</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>82</v>
@@ -39592,7 +39596,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>618</v>
@@ -39710,7 +39714,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>619</v>
@@ -39830,7 +39834,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>620</v>
@@ -39952,7 +39956,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>621</v>
@@ -39981,10 +39985,10 @@
         <v>198</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N305" t="s" s="2">
         <v>652</v>
@@ -40074,7 +40078,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>626</v>
@@ -40192,7 +40196,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>627</v>
@@ -40312,7 +40316,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>628</v>
@@ -40387,10 +40391,10 @@
         <v>82</v>
       </c>
       <c r="AB308" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC308" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD308" t="s" s="2">
         <v>82</v>
@@ -40434,13 +40438,13 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D309" t="s" s="2">
         <v>82</v>
@@ -40558,10 +40562,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -40676,10 +40680,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -40796,10 +40800,10 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -40918,10 +40922,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -41038,10 +41042,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -41083,7 +41087,7 @@
       </c>
       <c r="Q314" s="2"/>
       <c r="R314" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="S314" t="s" s="2">
         <v>82</v>
@@ -41160,10 +41164,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -41282,10 +41286,10 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -41404,7 +41408,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>629</v>
@@ -41526,7 +41530,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>630</v>
@@ -41648,7 +41652,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>634</v>
@@ -41770,7 +41774,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>640</v>
@@ -41892,7 +41896,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>641</v>
@@ -42014,13 +42018,13 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>609</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D322" t="s" s="2">
         <v>82</v>
@@ -42138,7 +42142,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>618</v>
@@ -42256,7 +42260,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>619</v>
@@ -42376,7 +42380,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>620</v>
@@ -42498,7 +42502,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>621</v>
@@ -42527,10 +42531,10 @@
         <v>198</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N326" t="s" s="2">
         <v>652</v>
@@ -42620,7 +42624,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>626</v>
@@ -42738,7 +42742,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>627</v>
@@ -42858,7 +42862,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>628</v>
@@ -42933,10 +42937,10 @@
         <v>82</v>
       </c>
       <c r="AB329" t="s" s="2">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="AC329" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD329" t="s" s="2">
         <v>82</v>
@@ -42980,13 +42984,13 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>628</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D330" t="s" s="2">
         <v>82</v>
@@ -43104,10 +43108,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -43222,10 +43226,10 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -43342,10 +43346,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -43464,10 +43468,10 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -43584,10 +43588,10 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -43629,7 +43633,7 @@
       </c>
       <c r="Q335" s="2"/>
       <c r="R335" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="S335" t="s" s="2">
         <v>82</v>
@@ -43706,10 +43710,10 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -43828,10 +43832,10 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -43950,7 +43954,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>629</v>
@@ -44072,7 +44076,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>630</v>
@@ -44194,7 +44198,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>634</v>
@@ -44316,7 +44320,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>640</v>
@@ -44438,7 +44442,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>641</v>
